--- a/data/2026-02-04/fitness_data_20260206_134705.xlsx
+++ b/data/2026-02-04/fitness_data_20260206_134705.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Walkathon\fitness-challenge\data\2026-02-04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B9A7BC-6749-4A4F-AE69-1824C3930642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -650,8 +656,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,13 +720,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -758,7 +772,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -792,6 +806,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -826,9 +841,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1001,14 +1017,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B113" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="7" width="24.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1051,13 +1077,13 @@
         <v>141</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>10787</v>
       </c>
       <c r="E2">
         <v>313</v>
       </c>
       <c r="F2">
-        <v>8.220000000000001</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1066,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1077,7 +1103,7 @@
         <v>141</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>13102</v>
       </c>
       <c r="E3">
         <v>589</v>
@@ -1092,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1121,7 +1147,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1158,7 @@
         <v>142</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>10107</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1147,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1184,7 @@
         <v>142</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>11624</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1173,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1210,7 @@
         <v>143</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>20031</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1199,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1254,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1239,7 +1265,7 @@
         <v>144</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10686</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1254,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1265,7 +1291,7 @@
         <v>145</v>
       </c>
       <c r="D10">
-        <v>20000</v>
+        <v>11834</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1280,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1291,7 +1317,7 @@
         <v>146</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>15655</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1306,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1317,7 +1343,7 @@
         <v>147</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5709</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1332,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1387,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1390,7 +1416,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1401,7 +1427,7 @@
         <v>148</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>8864</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1416,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1427,7 +1453,7 @@
         <v>148</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>7816</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1442,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1471,7 +1497,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1482,7 +1508,7 @@
         <v>149</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>7770</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1497,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1552,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1563,7 @@
         <v>150</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>20420</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1552,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1581,7 +1607,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1618,7 @@
         <v>151</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>12483</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1607,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1636,7 +1662,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1665,7 +1691,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1676,7 +1702,7 @@
         <v>152</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>9234</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1687,14 +1713,11 @@
       <c r="G25">
         <v>72</v>
       </c>
-      <c r="H25" t="s">
-        <v>198</v>
-      </c>
       <c r="I25">
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1723,7 +1746,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1752,7 +1775,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1763,7 +1786,7 @@
         <v>154</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>11152</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1778,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1789,7 +1812,7 @@
         <v>155</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>20157</v>
       </c>
       <c r="E29">
         <v>502</v>
@@ -1804,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1833,7 +1856,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1862,7 +1885,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1873,7 +1896,7 @@
         <v>156</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>7249</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1888,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1917,7 +1940,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1951,7 @@
         <v>157</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>7916</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1943,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1972,7 +1995,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2001,7 +2024,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2012,7 +2035,7 @@
         <v>158</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>5916</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2027,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2056,7 +2079,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2085,7 +2108,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2119,7 @@
         <v>159</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>14779</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2111,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2140,7 +2163,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2151,7 +2174,7 @@
         <v>160</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>14938</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2166,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2177,7 +2200,7 @@
         <v>161</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>20595</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2195,7 +2218,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2224,7 +2247,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2235,7 +2258,7 @@
         <v>162</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>9421</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2253,7 +2276,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2270,7 +2293,7 @@
         <v>162</v>
       </c>
       <c r="F46">
-        <v>9.710000000000001</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="G46">
         <v>56</v>
@@ -2282,7 +2305,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2311,7 +2334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2340,7 +2363,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2351,7 +2374,7 @@
         <v>164</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>12752</v>
       </c>
       <c r="E49">
         <v>1829</v>
@@ -2362,14 +2385,11 @@
       <c r="G49">
         <v>130</v>
       </c>
-      <c r="H49" t="s">
-        <v>198</v>
-      </c>
       <c r="I49">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2398,7 +2418,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2409,13 +2429,13 @@
         <v>165</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>5271</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G51">
         <v>74</v>
@@ -2424,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2453,7 +2473,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2464,7 +2484,7 @@
         <v>165</v>
       </c>
       <c r="D53">
-        <v>20000</v>
+        <v>5271</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2473,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="H53" t="s">
         <v>198</v>
@@ -2482,7 +2502,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2511,7 +2531,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2522,7 +2542,7 @@
         <v>166</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>2524</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2537,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2548,7 +2568,7 @@
         <v>167</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>10864</v>
       </c>
       <c r="E56">
         <v>676</v>
@@ -2563,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2592,7 +2612,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2603,7 +2623,7 @@
         <v>168</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>6498</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2614,14 +2634,11 @@
       <c r="G58">
         <v>48</v>
       </c>
-      <c r="H58" t="s">
-        <v>199</v>
-      </c>
       <c r="I58">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2650,7 +2667,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2661,7 +2678,7 @@
         <v>168</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>11627</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2676,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2705,7 +2722,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2716,7 +2733,7 @@
         <v>170</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>17875</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2731,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2760,7 +2777,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2789,7 +2806,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2800,7 +2817,7 @@
         <v>170</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>18015</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2818,7 +2835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2829,7 +2846,7 @@
         <v>171</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>10970</v>
       </c>
       <c r="E66">
         <v>2106</v>
@@ -2844,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2873,7 +2890,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2884,7 +2901,7 @@
         <v>171</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>15321</v>
       </c>
       <c r="E68">
         <v>2476</v>
@@ -2899,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2928,7 +2945,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2957,7 +2974,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2968,7 +2985,7 @@
         <v>171</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>25749</v>
       </c>
       <c r="E71">
         <v>2758</v>
@@ -2983,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3012,7 +3029,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3023,7 +3040,7 @@
         <v>171</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>14163</v>
       </c>
       <c r="E73">
         <v>2320</v>
@@ -3038,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3049,7 +3066,7 @@
         <v>172</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>12393</v>
       </c>
       <c r="E74">
         <v>300</v>
@@ -3067,7 +3084,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3078,7 +3095,7 @@
         <v>172</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>12393</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3093,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3104,7 +3121,7 @@
         <v>173</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>20047</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3115,14 +3132,11 @@
       <c r="G76">
         <v>54</v>
       </c>
-      <c r="H76" t="s">
-        <v>198</v>
-      </c>
       <c r="I76">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3139,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G77">
         <v>86</v>
@@ -3151,7 +3165,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3173,11 +3187,14 @@
       <c r="G78">
         <v>22</v>
       </c>
+      <c r="H78" t="s">
+        <v>198</v>
+      </c>
       <c r="I78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +3223,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3235,7 +3252,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3257,11 +3274,14 @@
       <c r="G81">
         <v>0</v>
       </c>
+      <c r="H81" t="s">
+        <v>198</v>
+      </c>
       <c r="I81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3278,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G82">
         <v>7</v>
@@ -3290,7 +3310,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3301,7 +3321,7 @@
         <v>174</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>16488</v>
       </c>
       <c r="E83">
         <v>2625</v>
@@ -3316,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3338,11 +3358,14 @@
       <c r="G84">
         <v>0</v>
       </c>
+      <c r="H84" t="s">
+        <v>198</v>
+      </c>
       <c r="I84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3371,7 +3394,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3382,7 +3405,7 @@
         <v>177</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>6733</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3397,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3408,7 +3431,7 @@
         <v>177</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>5101</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3423,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3434,7 +3457,7 @@
         <v>177</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>5692</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3449,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3460,7 +3483,7 @@
         <v>177</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3475,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3486,7 +3509,7 @@
         <v>177</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>5096</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3501,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3512,7 +3535,7 @@
         <v>177</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>6490</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3527,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3538,7 +3561,7 @@
         <v>177</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>7080</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3553,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3564,7 +3587,7 @@
         <v>178</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>13736</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3579,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3601,11 +3624,14 @@
       <c r="G94">
         <v>45</v>
       </c>
+      <c r="H94" t="s">
+        <v>198</v>
+      </c>
       <c r="I94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3616,7 +3642,7 @@
         <v>180</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>5080</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3631,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -3660,7 +3686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3682,11 +3708,14 @@
       <c r="G97">
         <v>121</v>
       </c>
+      <c r="H97" t="s">
+        <v>198</v>
+      </c>
       <c r="I97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3697,7 +3726,7 @@
         <v>182</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>4755</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3712,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3723,7 +3752,7 @@
         <v>182</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>4755</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3738,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3749,7 +3778,7 @@
         <v>182</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>4755</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3764,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -3775,7 +3804,7 @@
         <v>183</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>20135</v>
       </c>
       <c r="E101">
         <v>830</v>
@@ -3790,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3819,7 +3848,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -3830,13 +3859,13 @@
         <v>184</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>6943</v>
       </c>
       <c r="E103">
         <v>1660</v>
       </c>
       <c r="F103">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3845,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -3874,7 +3903,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -3885,7 +3914,7 @@
         <v>184</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>6943</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -3900,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -3911,7 +3940,7 @@
         <v>185</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>14114</v>
       </c>
       <c r="E106">
         <v>2503</v>
@@ -3926,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -3955,7 +3984,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -3966,7 +3995,7 @@
         <v>186</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -3981,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -3992,7 +4021,7 @@
         <v>187</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>16693</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4007,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -4036,7 +4065,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -4065,7 +4094,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -4094,7 +4123,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -4123,7 +4152,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -4152,7 +4181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -4181,7 +4210,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -4192,7 +4221,7 @@
         <v>189</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>13546</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4207,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -4218,7 +4247,7 @@
         <v>190</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>10183</v>
       </c>
       <c r="E117">
         <v>592</v>
@@ -4233,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -4262,7 +4291,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -4273,7 +4302,7 @@
         <v>191</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>8981</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4288,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -4299,7 +4328,7 @@
         <v>191</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>12100</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4314,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -4325,7 +4354,7 @@
         <v>191</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>5838</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4340,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -4351,7 +4380,7 @@
         <v>192</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>6243</v>
       </c>
       <c r="E122">
         <v>579</v>
@@ -4366,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -4389,13 +4418,13 @@
         <v>48</v>
       </c>
       <c r="H123" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I123">
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -4424,7 +4453,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -4435,7 +4464,7 @@
         <v>193</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>12286</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4446,14 +4475,11 @@
       <c r="G125">
         <v>102</v>
       </c>
-      <c r="H125" t="s">
-        <v>198</v>
-      </c>
       <c r="I125">
         <v>200</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -4482,7 +4508,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -4511,7 +4537,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -4522,7 +4548,7 @@
         <v>194</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>7965</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -4537,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -4566,7 +4592,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -4595,7 +4621,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -4630,14 +4656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4663,7 +4689,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -4689,7 +4715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -4700,7 +4726,7 @@
         <v>1297</v>
       </c>
       <c r="D3">
-        <v>18.15</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -4715,7 +4741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -4738,7 +4764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -4764,7 +4790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -4787,7 +4813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -4810,7 +4836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -4833,7 +4859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>147</v>
       </c>
@@ -4859,7 +4885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -4885,7 +4911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -4908,7 +4934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -4934,7 +4960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -4960,7 +4986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -4986,7 +5012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -5012,7 +5038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -5035,7 +5061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -5061,7 +5087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -5084,7 +5110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -5110,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -5136,7 +5162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -5162,7 +5188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>160</v>
       </c>
@@ -5188,7 +5214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>161</v>
       </c>
@@ -5214,7 +5240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -5240,7 +5266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -5266,7 +5292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>164</v>
       </c>
@@ -5292,7 +5318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -5318,7 +5344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -5341,7 +5367,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>167</v>
       </c>
@@ -5367,7 +5393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -5393,7 +5419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>169</v>
       </c>
@@ -5419,7 +5445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -5445,7 +5471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>171</v>
       </c>
@@ -5471,7 +5497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -5497,7 +5523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>174</v>
       </c>
@@ -5520,7 +5546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -5543,7 +5569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>176</v>
       </c>
@@ -5569,7 +5595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -5592,7 +5618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -5615,7 +5641,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -5638,7 +5664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>180</v>
       </c>
@@ -5664,7 +5690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>181</v>
       </c>
@@ -5687,7 +5713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -5710,7 +5736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -5736,7 +5762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -5747,7 +5773,7 @@
         <v>1702</v>
       </c>
       <c r="D45">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E45">
         <v>22</v>
@@ -5762,7 +5788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>185</v>
       </c>
@@ -5788,7 +5814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>186</v>
       </c>
@@ -5811,7 +5837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>187</v>
       </c>
@@ -5837,7 +5863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -5863,7 +5889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>189</v>
       </c>
@@ -5886,7 +5912,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>190</v>
       </c>
@@ -5912,7 +5938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -5935,7 +5961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>192</v>
       </c>
@@ -5961,7 +5987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>193</v>
       </c>
@@ -5987,7 +6013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>194</v>
       </c>
@@ -6013,7 +6039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>195</v>
       </c>
@@ -6039,7 +6065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>196</v>
       </c>
